--- a/biology/Médecine/Robert_Platt_(médecin)/Robert_Platt_(médecin).xlsx
+++ b/biology/Médecine/Robert_Platt_(médecin)/Robert_Platt_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_Platt_(m%C3%A9decin)</t>
+          <t>Robert_Platt_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Platt (16 avril 1900 - 30 juin 1978) est un médecin britannique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert_Platt_(m%C3%A9decin)</t>
+          <t>Robert_Platt_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Platt se spécialise dans la recherche sur les maladies rénales, mais on se souvient de lui pour les années 1940-1950 pour le débat avec George White Pickering sur la nature de l'hypertension. La position de Platt est que l'hypertension est une maladie simple causée peut-être par un seul défaut génétique, et il présente des preuves de sa transmission autosomique dominante et d'une distribution bimodale des pressions artérielles, indiquant que les hypertendus constituent une sous-population distincte chez l'homme.
 En revanche, le point de vue de Pickering est que les pressions artérielles varient de manière continue et unimodale, les hypertendus représentant l'extrémité supérieure de la courbe en cloche. Bien que le point de vue de Platt ait été favorisé de son vivant, le point de vue de Pickering l'emporte finalement et est à la base des politiques actuelles de compréhension et de traitement.
